--- a/data/Hyprr  Howdoo/Hyprr  Howdoo20200630.xlsx
+++ b/data/Hyprr  Howdoo/Hyprr  Howdoo20200630.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
@@ -1258,7 +1258,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60">
@@ -1510,7 +1510,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66">
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67">
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -1726,7 +1726,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73">
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
@@ -1870,7 +1870,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2014,7 +2014,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89">
@@ -2824,7 +2824,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134">
@@ -3292,7 +3292,25 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>95</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Hyprr  Howdoo</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2020/12/05</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
